--- a/data/trans_camb/P16A12-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P16A12-Dificultad-trans_camb.xlsx
@@ -540,7 +540,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas</t>
+          <t>Población que ha consumido medicamentos para la diabetes en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_camb/P16A12-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P16A12-Dificultad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>2.224391142182329</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1.508313955113723</v>
+        <v>1.508313955113724</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>1.77710157619175</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.746499515422253</v>
+        <v>-2.806759387921886</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.4964088858826409</v>
+        <v>-0.4496848938079402</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.61232356584939</v>
+        <v>-1.346330193191207</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.7965833330597709</v>
+        <v>-0.8660796615102618</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.643420282496371</v>
+        <v>-1.769020131826919</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.4127860322781892</v>
+        <v>-0.4138075149718098</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.004813775854409</v>
+        <v>-1.082630974495491</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.7618436338860878</v>
+        <v>-0.4697936319545443</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.02477048951474724</v>
+        <v>-0.1861301936400477</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.434833742572208</v>
+        <v>2.49831648428007</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.83387846550898</v>
+        <v>4.625449107256796</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.895021359818437</v>
+        <v>4.974801935526565</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.347808963892645</v>
+        <v>4.536428963117984</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.279281632812476</v>
+        <v>3.436514570297584</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>4.883873719144112</v>
+        <v>4.847261331337543</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.541872382270442</v>
+        <v>2.624182677571928</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.979217939361767</v>
+        <v>3.077774868925182</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>4.000943728563708</v>
+        <v>4.110401401137179</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.3003001902156853</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.203627392249567</v>
+        <v>0.2036273922495672</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.2149720526433545</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3028907056400267</v>
+        <v>-0.3197860546146985</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.05780927641336751</v>
+        <v>-0.05004229871391944</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1865033679301885</v>
+        <v>-0.1523074687715128</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.08288431757087544</v>
+        <v>-0.0894610444622832</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1781159612831404</v>
+        <v>-0.1810119946697525</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.04362949003266139</v>
+        <v>-0.05258346327538242</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1139289009136715</v>
+        <v>-0.1197948283528461</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.08827302866170708</v>
+        <v>-0.05179695798950255</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.01338902935170816</v>
+        <v>-0.02412708032073075</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.3889503218546182</v>
+        <v>0.4295799685220216</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.8582840457411524</v>
+        <v>0.7721684954144201</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.7923212482991211</v>
+        <v>0.8351842246646011</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.6473700269478638</v>
+        <v>0.6636810436542389</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.469093681575763</v>
+        <v>0.5069437240989383</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6749425655544138</v>
+        <v>0.6787435188226575</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3540666836398199</v>
+        <v>0.3864614725642541</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.441918257504984</v>
+        <v>0.4496966938956596</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.5629215760007753</v>
+        <v>0.597215886918412</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>2.655171209427738</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2.696801450041843</v>
+        <v>2.696801450041841</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>3.826380596066695</v>
@@ -869,7 +869,7 @@
         <v>2.320621596400492</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>2.931258544244256</v>
+        <v>2.931258544244254</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>2.281710142883508</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.693615305878968</v>
+        <v>-1.759898168294458</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3647376632584974</v>
+        <v>0.3464670956426074</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3612724209996819</v>
+        <v>0.5281315675181586</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.415921461967568</v>
+        <v>1.536859366473138</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04371067511447688</v>
+        <v>0.09133644690889622</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.9772705098177183</v>
+        <v>1.340653705078774</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.6896114940599177</v>
+        <v>0.7308482499685955</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.7966922156325789</v>
+        <v>0.9830116142680928</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.365232694648286</v>
+        <v>1.366221499702635</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.820815170377056</v>
+        <v>2.747315201910566</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.126835087445019</v>
+        <v>5.032707290416771</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.687060191066281</v>
+        <v>4.895355835462296</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.184385344182205</v>
+        <v>6.142209184825125</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.591967393492731</v>
+        <v>4.660079953630267</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>4.723589393123002</v>
+        <v>4.848246968139282</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.95148540739842</v>
+        <v>4.048849185631306</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.994378459930034</v>
+        <v>4.110134978968852</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>4.122253304611514</v>
+        <v>4.227094343977749</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.439815362278617</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.4467111960736003</v>
+        <v>0.4467111960736</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.6867206983307389</v>
@@ -974,7 +974,7 @@
         <v>0.4164820626781588</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5260731032769104</v>
+        <v>0.5260731032769101</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.392944146897713</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2429861122344436</v>
+        <v>-0.2450485216927709</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.04925572379865704</v>
+        <v>0.04152824916642608</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.05194869554436233</v>
+        <v>0.07255907305862054</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.2178927173996568</v>
+        <v>0.240724423100099</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.008189726845501264</v>
+        <v>0.01466153923195826</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1331764953445888</v>
+        <v>0.2098121212733265</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1006726625581068</v>
+        <v>0.1154028904889796</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1153214487124915</v>
+        <v>0.152661589943495</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.2043813517063947</v>
+        <v>0.2079550804285685</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.5604227477711415</v>
+        <v>0.5451626239405579</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.012790577703837</v>
+        <v>0.9999246892160472</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.9370710931258168</v>
+        <v>0.9496570952396813</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.354682476559037</v>
+        <v>1.376176918091055</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.006928639403126</v>
+        <v>1.027002122124882</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.036787617262143</v>
+        <v>1.092325805817925</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7565059550177433</v>
+        <v>0.7855440632491406</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.7831775474663268</v>
+        <v>0.8074872048762929</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.8114383101875808</v>
+        <v>0.8521579618944537</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>2.673739716630474</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.6401412541731565</v>
+        <v>0.6401412541731557</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>2.825535289324396</v>
@@ -1092,7 +1092,7 @@
         <v>2.587570192873514</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>3.057664992330167</v>
+        <v>3.05766499233017</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.842711657087944</v>
+        <v>1.780511772228666</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5181381192588145</v>
+        <v>0.4306691367623005</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.450809378829545</v>
+        <v>3.483306925979467</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.5401929954605962</v>
+        <v>-0.6376440183130045</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3579396488296476</v>
+        <v>0.2509875394555218</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.165402936038523</v>
+        <v>-1.142064381262793</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.200052591595169</v>
+        <v>1.280362119205765</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>1.021898663252841</v>
+        <v>0.9870648908839221</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>1.685725312701748</v>
+        <v>1.790557166736488</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.361176226864849</v>
+        <v>6.147477293121948</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.598712361357564</v>
+        <v>4.655612261511296</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.53454630680474</v>
+        <v>7.505579303206473</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.81489330736175</v>
+        <v>3.662277238731628</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>5.253463207707111</v>
+        <v>5.39618244934775</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.483488404765389</v>
+        <v>2.42061821740105</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4.44218191290016</v>
+        <v>4.529938070689788</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>4.20356916694998</v>
+        <v>4.278745783897651</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>4.385900117586637</v>
+        <v>4.427580307675595</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.5140704401151615</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1230776856183217</v>
+        <v>0.1230776856183215</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.6151775270813784</v>
@@ -1197,7 +1197,7 @@
         <v>0.5633675991999474</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.665716969004742</v>
+        <v>0.6657169690047426</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.3847817240833599</v>
+        <v>0.3573804672404338</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.08851321271309887</v>
+        <v>0.05950402004636297</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.6335710008493486</v>
+        <v>0.6469546385365721</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.09990484402164045</v>
+        <v>-0.1113588336151566</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.04820445245325381</v>
+        <v>0.03055352269594947</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1828865566971981</v>
+        <v>-0.18028578947331</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2340263028819804</v>
+        <v>0.2390921625977598</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1972586615409231</v>
+        <v>0.1771778264525085</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.3054343207630368</v>
+        <v>0.3280971544601886</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.870874849877866</v>
+        <v>1.87203122345253</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.396181005890513</v>
+        <v>1.38517445160472</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.235737542217055</v>
+        <v>2.218827398681346</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.9161837565889871</v>
+        <v>0.8835755147498813</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.217008933774875</v>
+        <v>1.247775128576146</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6048106991653265</v>
+        <v>0.6052774195163573</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.10962675423839</v>
+        <v>1.11679634865706</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.072646355063836</v>
+        <v>1.047707164645514</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.095238255750326</v>
+        <v>1.125720267834661</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.1524678209042496</v>
+        <v>-0.4595889162521612</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.002335309290620635</v>
+        <v>0.002632343731708401</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4775344274001814</v>
+        <v>0.8718302648531842</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.2659471315531692</v>
+        <v>-0.4359315073637803</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.154873351904822</v>
+        <v>-1.193394994478895</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.1106897419813008</v>
+        <v>0.03450440212374385</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.5730354183530781</v>
+        <v>0.6663413072804967</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.07313207239914511</v>
+        <v>0.2327950879976023</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.097693024141004</v>
+        <v>1.092890041903983</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.8808148909949</v>
+        <v>5.63156465528923</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.875974090433166</v>
+        <v>5.760802741412159</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.459906758597206</v>
+        <v>5.760339845037692</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.526073716974327</v>
+        <v>5.533226291511721</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.384212295587083</v>
+        <v>4.37001366178086</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>4.421822727303466</v>
+        <v>4.606211066166455</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.816306111266326</v>
+        <v>4.846957619015519</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>4.156851106509595</v>
+        <v>4.580233774206913</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>4.384075800257058</v>
+        <v>4.444130483244332</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.05472945387448479</v>
+        <v>-0.08166362034149192</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.05017474484430011</v>
+        <v>-0.009369623618543507</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.05565443703687176</v>
+        <v>0.1083350471841974</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1213638664621473</v>
+        <v>-0.1424625359418971</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3425772122243411</v>
+        <v>-0.3062175139901169</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.04506836515110939</v>
+        <v>-0.003799485193135816</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1004656152401369</v>
+        <v>0.1375525661609243</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.01169369844527144</v>
+        <v>0.02246781730853278</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.2246578135910681</v>
+        <v>0.1966731985494306</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.751182126901886</v>
+        <v>1.861300936461938</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.891987149861308</v>
+        <v>1.7881979797382</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.840185815609821</v>
+        <v>1.942066856098395</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>3.014310401533419</v>
+        <v>3.205571910475669</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>2.329796002037031</v>
+        <v>2.659855259739733</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.430412334201606</v>
+        <v>2.809428872200031</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.704832848169079</v>
+        <v>1.742875539110962</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.410989189398418</v>
+        <v>1.519263520584764</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.607415870584595</v>
+        <v>1.553557830857788</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>2.912479715305908</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3.316742565229005</v>
+        <v>3.316742565229006</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>2.509961116470692</v>
@@ -1520,7 +1520,7 @@
         <v>2.374158624046709</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>2.352841792171123</v>
+        <v>2.35284179217112</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.6829971480526952</v>
+        <v>0.787119637865681</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>1.744342158107135</v>
+        <v>1.674606635525054</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2.168782327981855</v>
+        <v>2.160710301498948</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1.259938794467739</v>
+        <v>1.316625891787379</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.6245731706639291</v>
+        <v>0.6497209158485544</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.3727831746405172</v>
+        <v>0.2982765011779799</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>1.288203885760295</v>
+        <v>1.312356056431187</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>1.51616284434791</v>
+        <v>1.457716771760269</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>1.538840064100369</v>
+        <v>1.488573520979639</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.957670357149095</v>
+        <v>3.288499797592102</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.97560516505979</v>
+        <v>4.236389739977571</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.319067034908015</v>
+        <v>4.490182174439818</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.678310309384805</v>
+        <v>3.779008870899979</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>3.161331516735165</v>
+        <v>3.18909356460084</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.481077453141739</v>
+        <v>2.355286190192925</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>3.05377370652715</v>
+        <v>3.131140318734851</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>3.219492170053241</v>
+        <v>3.211727572551724</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>3.039335514892406</v>
+        <v>3.079569637024691</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.5422231233940716</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.6174856785306889</v>
+        <v>0.6174856785306891</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.4216180293497522</v>
@@ -1625,7 +1625,7 @@
         <v>0.4190147199901799</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.4152525171411547</v>
+        <v>0.4152525171411542</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.110438119853055</v>
+        <v>0.1279070424558653</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.2978051505335884</v>
+        <v>0.2805687086886606</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.3666447492895477</v>
+        <v>0.3636108028720913</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1876863014768815</v>
+        <v>0.1961195941254688</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.09666832986453616</v>
+        <v>0.09616068858844252</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.05726771770549461</v>
+        <v>0.04472882564904621</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2091171557211806</v>
+        <v>0.2182555901814184</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.2468000314141095</v>
+        <v>0.2427734070561686</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.255020638141195</v>
+        <v>0.2405057700761224</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.5980202033211764</v>
+        <v>0.6731063466546847</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.8240727286139907</v>
+        <v>0.8784525731727405</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.8941869878748054</v>
+        <v>0.9267167812213268</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.7158407352570677</v>
+        <v>0.7017434152269397</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.5865908322242653</v>
+        <v>0.6021130921465934</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.476647031498751</v>
+        <v>0.4424283065370809</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.5675794596325358</v>
+        <v>0.5941969957839361</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.609431292952113</v>
+        <v>0.6146017416802861</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.5811389662801136</v>
+        <v>0.5805605571876314</v>
       </c>
     </row>
     <row r="34">
